--- a/BackTest/2020-01-19 BackTest OMG.xlsx
+++ b/BackTest/2020-01-19 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4652.129</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-4616.3489</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-4732.0401</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>938.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-1702.1481</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>932.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-1700.5904</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>941.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-1900.6062</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>943.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>937.4353999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>937.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>938.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>937.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-377.9957000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>937.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-405.5108000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>941.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-404.5108000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>937.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-157.1468000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>942.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-226.5625000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>946.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>1318.9594</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>938.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>1322.9594</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>939.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>1323.9594</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>949.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-2271.407</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1151,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1188,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1262,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1299,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1336,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1373,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1410,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1447,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1484,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1521,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1558,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1595,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1669,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1706,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1743,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1780,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1850,17 +1672,11 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>933.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1889,17 +1705,11 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>933.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1965,17 +1771,11 @@
         <v>-13169.21984736842</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>926.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2004,17 +1804,11 @@
         <v>-13219.21984736842</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2043,17 +1837,11 @@
         <v>-13218.21984736842</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2082,17 +1870,11 @@
         <v>-13218.21984736842</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2121,17 +1903,11 @@
         <v>-13218.21984736842</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2160,17 +1936,11 @@
         <v>-12692.60654736842</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2199,17 +1969,11 @@
         <v>-12691.60654736842</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>941.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2242,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2279,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2316,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2390,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2427,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2497,16 +2233,14 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
       <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2598,7 +2332,7 @@
         <v>-15125.37984736842</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2631,7 +2365,7 @@
         <v>-16194.67474736842</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2829,7 +2563,7 @@
         <v>-15822.33664736842</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2862,7 +2596,7 @@
         <v>-15688.33834736842</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2895,7 +2629,7 @@
         <v>-15679.16824736842</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2928,7 +2662,7 @@
         <v>-15679.16824736842</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2961,7 +2695,7 @@
         <v>-13820.76474736842</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2994,7 +2728,7 @@
         <v>-12998.39084736842</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3027,7 +2761,7 @@
         <v>-13058.33164736842</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3060,7 +2794,7 @@
         <v>-13058.33164736842</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3093,7 +2827,7 @@
         <v>-13050.15884736842</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3126,7 +2860,7 @@
         <v>-13096.16254736842</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3192,7 +2926,7 @@
         <v>-13096.16254736842</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3225,7 +2959,7 @@
         <v>-11334.54524736842</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3258,7 +2992,7 @@
         <v>-11334.54524736842</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3324,7 +3058,7 @@
         <v>-13447.43508765046</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3357,7 +3091,7 @@
         <v>-14532.02448765046</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3390,7 +3124,7 @@
         <v>-14018.50778765046</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3423,7 +3157,7 @@
         <v>-12314.50778765046</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3456,7 +3190,7 @@
         <v>-12282.94668765046</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3489,7 +3223,7 @@
         <v>-13324.09558765046</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3522,7 +3256,7 @@
         <v>-12031.03398765046</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3621,7 +3355,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3654,7 +3388,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3687,7 +3421,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3720,7 +3454,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3753,7 +3487,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3786,7 +3520,7 @@
         <v>-11082.20058765046</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3819,7 +3553,7 @@
         <v>-16513.34418765046</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3852,7 +3586,7 @@
         <v>-15716.28658765046</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3885,7 +3619,7 @@
         <v>-14495.09448376218</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3918,7 +3652,7 @@
         <v>-15392.79378376218</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3951,7 +3685,7 @@
         <v>-16528.95978376218</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3984,7 +3718,7 @@
         <v>-16228.95978376218</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4017,7 +3751,7 @@
         <v>-16589.95978376218</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4050,7 +3784,7 @@
         <v>-16152.67838376218</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4083,7 +3817,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4116,7 +3850,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4149,7 +3883,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4182,7 +3916,7 @@
         <v>-16975.29788376218</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4215,7 +3949,7 @@
         <v>-18154.29788376218</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4248,7 +3982,7 @@
         <v>-18754.29788376218</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4281,7 +4015,7 @@
         <v>-20249.98788376218</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4314,7 +4048,7 @@
         <v>-20549.98788376218</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4347,7 +4081,7 @@
         <v>-22723.95608376218</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4380,7 +4114,7 @@
         <v>-22088.71578376218</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4413,7 +4147,7 @@
         <v>-23183.51568376218</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4446,7 +4180,7 @@
         <v>-21936.92218376218</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4479,7 +4213,7 @@
         <v>-23462.75538376219</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4512,7 +4246,7 @@
         <v>-23462.10658376219</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4545,7 +4279,7 @@
         <v>-23509.40658376219</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4578,7 +4312,7 @@
         <v>-23509.40658376219</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4611,7 +4345,7 @@
         <v>-22191.10808376218</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4644,7 +4378,7 @@
         <v>-21968.07008376218</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4677,7 +4411,7 @@
         <v>-21968.07008376218</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4710,7 +4444,7 @@
         <v>-21903.37008376218</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4743,7 +4477,7 @@
         <v>-23210.58248376218</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4776,7 +4510,7 @@
         <v>-12347.00668376218</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4809,7 +4543,7 @@
         <v>-12662.64218376218</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4842,7 +4576,7 @@
         <v>-13545.36808376218</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4875,7 +4609,7 @@
         <v>-14638.26978376218</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4908,7 +4642,7 @@
         <v>-15052.84768376218</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4941,7 +4675,7 @@
         <v>-13642.47958376218</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4974,7 +4708,7 @@
         <v>-14102.47958376218</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5007,7 +4741,7 @@
         <v>-16377.97338376218</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5040,7 +4774,7 @@
         <v>-15177.97338376218</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5073,7 +4807,7 @@
         <v>-15177.97338376218</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5106,7 +4840,7 @@
         <v>-15401.01138376218</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5139,7 +4873,7 @@
         <v>-14974.68708376218</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5172,7 +4906,7 @@
         <v>-15635.75368376218</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5205,7 +4939,7 @@
         <v>-15533.03898376218</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5238,7 +4972,7 @@
         <v>-16448.44988376218</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5271,7 +5005,7 @@
         <v>-16295.02998376218</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5304,7 +5038,7 @@
         <v>-16295.02998376218</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5436,7 +5170,7 @@
         <v>-13718.08818376218</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5469,7 +5203,7 @@
         <v>-13716.16648376218</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5502,7 +5236,7 @@
         <v>-19445.84347855176</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5535,7 +5269,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5568,7 +5302,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5601,7 +5335,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5634,7 +5368,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5700,7 +5434,7 @@
         <v>-13416.89767855176</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5733,7 +5467,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5799,7 +5533,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5832,7 +5566,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5865,7 +5599,7 @@
         <v>-16076.80519944729</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5898,7 +5632,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5931,7 +5665,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5964,7 +5698,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5997,7 +5731,7 @@
         <v>-15238.15819944729</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6030,7 +5764,7 @@
         <v>-17608.31209984372</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6063,7 +5797,7 @@
         <v>-20738.42099984372</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6096,7 +5830,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6129,7 +5863,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6162,7 +5896,7 @@
         <v>-22036.64139984372</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6195,7 +5929,7 @@
         <v>-21968.37829984372</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6228,7 +5962,7 @@
         <v>-23692.12719984372</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6261,7 +5995,7 @@
         <v>-17169.93699984372</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6294,7 +6028,7 @@
         <v>-17139.83699984372</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6327,7 +6061,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6360,7 +6094,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6393,7 +6127,7 @@
         <v>-15100.85589984372</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6426,7 +6160,7 @@
         <v>-13451.57539984372</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6459,7 +6193,7 @@
         <v>-13627.79179984372</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6492,7 +6226,7 @@
         <v>-14482.24289984372</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6525,7 +6259,7 @@
         <v>-16812.24909984372</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6558,7 +6292,7 @@
         <v>-21223.30189984372</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6591,7 +6325,7 @@
         <v>-29992.84349984372</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6624,7 +6358,7 @@
         <v>-28915.57469984372</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6657,7 +6391,7 @@
         <v>-30471.84239984372</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6690,7 +6424,7 @@
         <v>-29528.66989984372</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6723,7 +6457,7 @@
         <v>-28919.36689984372</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6756,7 +6490,7 @@
         <v>-30434.77899984372</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6789,7 +6523,7 @@
         <v>-31341.55199984372</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6822,7 +6556,7 @@
         <v>-29090.96399984372</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6855,7 +6589,7 @@
         <v>-28001.70769984372</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6888,7 +6622,7 @@
         <v>-27531.30879984372</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6921,7 +6655,7 @@
         <v>-29361.67919984372</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6954,7 +6688,7 @@
         <v>-28926.71809984372</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6987,7 +6721,7 @@
         <v>-29068.33329984372</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7020,7 +6754,7 @@
         <v>-27426.66139984372</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7053,7 +6787,7 @@
         <v>-28853.36759984372</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7086,7 +6820,7 @@
         <v>-27766.21179984372</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7119,7 +6853,7 @@
         <v>-27822.08429984372</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7152,7 +6886,7 @@
         <v>-29753.56749984372</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7185,7 +6919,7 @@
         <v>-29753.56749984372</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7218,7 +6952,7 @@
         <v>-23208.18609984372</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7251,7 +6985,7 @@
         <v>-19754.99462094826</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7284,7 +7018,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7317,7 +7051,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7350,7 +7084,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7383,7 +7117,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7416,7 +7150,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7449,7 +7183,7 @@
         <v>-19871.51262094826</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7482,7 +7216,7 @@
         <v>-21171.51262094826</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7515,7 +7249,7 @@
         <v>-20793.49492094825</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7548,7 +7282,7 @@
         <v>-20541.70532094825</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7581,7 +7315,7 @@
         <v>-21258.51832094825</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7614,7 +7348,7 @@
         <v>-22259.79322094825</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7647,7 +7381,7 @@
         <v>-21067.79062094825</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7680,7 +7414,7 @@
         <v>-19642.31052094825</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7713,7 +7447,7 @@
         <v>-19804.50992094825</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7746,7 +7480,7 @@
         <v>-19689.69932094825</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7779,7 +7513,7 @@
         <v>-18781.11262094825</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7812,7 +7546,7 @@
         <v>-17186.87792094825</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7845,7 +7579,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7878,7 +7612,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7911,7 +7645,7 @@
         <v>-18776.49672094825</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7944,7 +7678,7 @@
         <v>-18784.59672094825</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7977,7 +7711,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8010,7 +7744,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8043,7 +7777,7 @@
         <v>-19135.21542094825</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8076,7 +7810,7 @@
         <v>-20854.53452094825</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8109,7 +7843,7 @@
         <v>-22006.14172094825</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8142,7 +7876,7 @@
         <v>-21797.18012094825</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8175,7 +7909,7 @@
         <v>-22193.83542094825</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8208,7 +7942,7 @@
         <v>-22512.66312094825</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8241,7 +7975,7 @@
         <v>-23888.93892094825</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8274,7 +8008,7 @@
         <v>-23867.78552094825</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8307,7 +8041,7 @@
         <v>-23797.35182094825</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8340,7 +8074,7 @@
         <v>-27061.45182094825</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8373,7 +8107,7 @@
         <v>-29912.67542094825</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8406,7 +8140,7 @@
         <v>-29900.07542094825</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8439,7 +8173,7 @@
         <v>-30945.03502094825</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8472,7 +8206,7 @@
         <v>-29891.61582094825</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8505,7 +8239,7 @@
         <v>-29591.61582094825</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8538,7 +8272,7 @@
         <v>-29954.63302094825</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8571,7 +8305,7 @@
         <v>-29680.36382094825</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8604,7 +8338,7 @@
         <v>-29621.96874032621</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8637,7 +8371,7 @@
         <v>-29861.56884032621</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8736,7 +8470,7 @@
         <v>-32355.48314032621</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10221,10 +9955,14 @@
         <v>-35479.87964032619</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>961</v>
+      </c>
+      <c r="J290" t="n">
+        <v>961</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -10254,11 +9992,19 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="J291" t="n">
+        <v>961</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +10036,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>961</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10353,11 +10105,17 @@
         <v>-35707.8443403262</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>959.5</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +10144,17 @@
         <v>-35764.8443403262</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>958</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +10183,17 @@
         <v>-36742.7367403262</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>955.3</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10452,11 +10222,17 @@
         <v>-36910.9304403262</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>952</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10485,11 +10261,17 @@
         <v>-36924.4304403262</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>951.1</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10518,11 +10300,17 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>950</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10551,11 +10339,17 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>938</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +10378,17 @@
         <v>-37092.1278403262</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>938</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10617,11 +10417,17 @@
         <v>-39113.21924032619</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>939.1</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +10456,17 @@
         <v>-39565.7231403262</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>937.7</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10683,11 +10495,17 @@
         <v>-4026.592940326198</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>936.2</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10720,7 +10538,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10753,7 +10575,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10786,7 +10612,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10819,7 +10649,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10852,7 +10686,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10885,7 +10723,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10918,7 +10760,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10951,7 +10797,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10984,7 +10834,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11017,7 +10871,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11050,7 +10908,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11083,7 +10945,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11116,7 +10982,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11149,7 +11019,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11182,7 +11056,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11215,7 +11093,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11248,7 +11130,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11281,7 +11167,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11314,7 +11204,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11347,7 +11241,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11380,7 +11278,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +11315,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11446,7 +11352,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11479,7 +11389,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11512,7 +11426,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11545,7 +11463,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11578,7 +11500,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11611,7 +11537,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11644,7 +11574,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11677,7 +11611,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11710,7 +11648,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11743,7 +11685,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11776,7 +11722,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11809,7 +11759,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11842,7 +11796,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11875,7 +11833,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11908,7 +11870,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11941,7 +11907,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11974,7 +11944,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12007,7 +11981,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12040,7 +12018,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12073,7 +12055,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12106,7 +12092,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12139,7 +12129,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12172,7 +12166,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12205,7 +12203,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12238,7 +12240,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12271,7 +12277,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12304,7 +12314,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12337,7 +12351,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12370,7 +12388,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12403,7 +12425,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12436,7 +12462,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12469,7 +12499,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12502,7 +12536,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12535,7 +12573,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12568,7 +12610,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12601,7 +12647,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12634,7 +12684,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12667,7 +12721,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12700,7 +12758,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12733,7 +12795,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12766,7 +12832,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12799,7 +12869,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12832,7 +12906,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12865,7 +12943,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12898,7 +12980,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12931,7 +13017,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12964,7 +13054,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12997,7 +13091,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13030,7 +13128,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13063,7 +13165,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13096,7 +13202,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +13239,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13162,7 +13276,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13195,7 +13313,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13228,7 +13350,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13261,7 +13387,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13294,7 +13424,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13327,7 +13461,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13360,7 +13498,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13393,7 +13535,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13426,7 +13572,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13459,7 +13609,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13646,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13683,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13558,7 +13720,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13591,7 +13757,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13624,7 +13794,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +13831,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13690,7 +13868,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +13905,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13756,7 +13942,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13789,7 +13979,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13822,7 +14016,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13851,11 +14049,17 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>965.4</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +14088,17 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>963</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +14127,17 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>963</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13950,11 +14166,17 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>963</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13987,7 +14209,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14020,7 +14246,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14053,7 +14283,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14082,11 +14316,17 @@
         <v>-40432.2453403262</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>928.9</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14115,11 +14355,17 @@
         <v>-40410.8913403262</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>951.4</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14148,11 +14394,17 @@
         <v>-40685.8913403262</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>954.6</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14181,11 +14433,17 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>952.2</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14214,11 +14472,17 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>953.1</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14247,11 +14511,17 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>953.1</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14280,11 +14550,17 @@
         <v>-40969.5020403262</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>953.1</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +14589,17 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>953</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14346,11 +14628,17 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>953.2</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14379,11 +14667,17 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>953.2</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14412,11 +14706,17 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>953.2</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14445,11 +14745,17 @@
         <v>-39083.7782403262</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>953.2</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14478,11 +14784,17 @@
         <v>-39358.7782403262</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>956.9</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14511,11 +14823,17 @@
         <v>-38529.3426403262</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>955</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14544,11 +14862,17 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>956</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14577,11 +14901,17 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>955</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +14940,17 @@
         <v>-38473.1474403262</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>955</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14643,11 +14979,17 @@
         <v>-39234.77714032619</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>963</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14676,11 +15018,17 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>962.9</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14709,11 +15057,17 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>966</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14746,7 +15100,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14775,11 +15133,17 @@
         <v>-35739.2673403262</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>966.1</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14808,11 +15172,17 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>960.8</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +15211,17 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>966.1</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15254,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14911,7 +15291,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14944,7 +15328,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14977,7 +15365,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15010,7 +15402,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15043,13 +15439,17 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest OMG.xlsx
+++ b/BackTest/2020-01-19 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4652.129</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4616.3489</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4732.0401</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1702.1481</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1700.5904</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1900.6062</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>937.4353999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-377.9957000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-405.5108000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-404.5108000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-157.1468000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-226.5625000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1318.9594</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1322.9594</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1323.9594</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2271.407</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2270.407</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>522.607</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>547.607</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3626.4972</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3623.9972</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4096.9073</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7366.5044</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7305.5044</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7309.263</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7341.1977</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7247.6977</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7147.94704736842</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7219.94704736842</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7200.789847368421</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7138.673047368421</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7141.594447368421</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9944.967947368423</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-15093.75534736842</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-15569.64054736842</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-15125.37984736842</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-16194.67474736842</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-16231.47474736842</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-16192.95504736842</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-16146.65514736842</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16150.74154736842</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-13447.43508765046</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-14532.02448765046</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-11082.20058765046</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16513.34418765046</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-15716.28658765046</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-14495.09448376218</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15392.79378376218</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16528.95978376218</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16228.95978376218</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16589.95978376218</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16152.67838376218</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16975.29788376218</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-18154.29788376218</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-18754.29788376218</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-20249.98788376218</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-20549.98788376218</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22723.95608376218</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22088.71578376218</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-23183.51568376218</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-21936.92218376218</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-23462.75538376219</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-23462.10658376219</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-23509.40658376219</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-23509.40658376219</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-22191.10808376218</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-21968.07008376218</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-21968.07008376218</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-21903.37008376218</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-23210.58248376218</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-12347.00668376218</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-12662.64218376218</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-13545.36808376218</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-14638.26978376218</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-15052.84768376218</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-13642.47958376218</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-14102.47958376218</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-16377.97338376218</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-15177.97338376218</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-15177.97338376218</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-15401.01138376218</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-14974.68708376218</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-15635.75368376218</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-15533.03898376218</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-16448.44988376218</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-16295.02998376218</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-13718.08818376218</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-13716.16648376218</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-19445.84347855176</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-13416.89767855176</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-16076.80519944729</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-15238.15819944729</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-17608.31209984372</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-20738.42099984372</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-22036.64139984372</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-21968.37829984372</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-23692.12719984372</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-17169.93699984372</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-17139.83699984372</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15100.85589984372</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-13451.57539984372</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-13627.79179984372</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-14482.24289984372</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-16812.24909984372</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-21223.30189984372</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-29992.84349984372</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-28915.57469984372</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-30471.84239984372</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-29528.66989984372</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-28919.36689984372</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-30434.77899984372</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-31341.55199984372</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-29090.96399984372</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-28001.70769984372</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-27531.30879984372</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-29361.67919984372</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-28926.71809984372</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-29068.33329984372</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-27426.66139984372</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-28853.36759984372</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-27766.21179984372</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-27822.08429984372</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-29753.56749984372</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-29753.56749984372</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-23208.18609984372</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-19754.99462094826</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-19871.51262094826</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-21171.51262094826</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-20793.49492094825</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-20541.70532094825</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-21258.51832094825</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-22259.79322094825</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-21067.79062094825</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-19642.31052094825</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-19804.50992094825</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-19689.69932094825</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-18781.11262094825</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-17186.87792094825</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-18776.49672094825</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-18784.59672094825</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-19135.21542094825</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-20854.53452094825</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-22006.14172094825</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-21797.18012094825</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-22193.83542094825</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-22512.66312094825</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-23888.93892094825</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-23867.78552094825</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-23797.35182094825</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-27061.45182094825</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-29912.67542094825</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-29900.07542094825</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-30945.03502094825</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-29891.61582094825</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-29591.61582094825</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-29954.63302094825</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-29680.36382094825</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-29621.96874032621</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-29861.56884032621</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-32355.48314032621</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9955,14 +9955,10 @@
         <v>-35479.87964032619</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>961</v>
-      </c>
-      <c r="J290" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -9992,19 +9988,11 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>960.4</v>
-      </c>
-      <c r="J291" t="n">
-        <v>961</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10036,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>961</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10126,9 @@
         <v>-35764.8443403262</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10183,11 +10163,9 @@
         <v>-36742.7367403262</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>955.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10222,11 +10200,9 @@
         <v>-36910.9304403262</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10300,11 +10276,9 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10339,11 +10313,9 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10608,9 +10580,11 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>941.6</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10645,9 +10619,11 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>941.6</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10682,9 +10658,11 @@
         <v>-9120.961840326199</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>941.6</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10719,9 +10697,11 @@
         <v>-4490.444340326199</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>930.1</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11163,9 +11143,11 @@
         <v>-5080.868740326199</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>934</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11200,9 +11182,11 @@
         <v>-6871.321640326199</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>933.1</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11237,9 +11221,11 @@
         <v>-9114.058540326199</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>926.1</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11274,9 +11260,11 @@
         <v>-5502.725040326199</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>925.2</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11311,9 +11299,11 @@
         <v>-6531.053740326199</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>925.4</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11348,9 +11338,11 @@
         <v>-11693.5653403262</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>925.3</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11385,9 +11377,11 @@
         <v>-11651.9237403262</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>908.3</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11422,9 +11416,11 @@
         <v>-12803.2600403262</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>919.8</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11496,9 +11492,11 @@
         <v>-10278.0509403262</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>916</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -13013,18 +13011,16 @@
         <v>-30144.53674032619</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -13050,15 +13046,11 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13087,15 +13079,11 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13124,15 +13112,11 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13161,15 +13145,11 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13198,15 +13178,11 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13235,15 +13211,11 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13272,15 +13244,11 @@
         <v>-28558.65164032619</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13313,11 +13281,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13350,11 +13314,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13347,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13424,11 +13380,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13461,11 +13413,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13494,15 +13442,11 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13531,15 +13475,11 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13568,15 +13508,11 @@
         <v>-28623.05804032619</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13609,11 +13545,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13646,11 +13578,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13683,11 +13611,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13720,11 +13644,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13757,11 +13677,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13794,11 +13710,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13831,11 +13743,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13868,11 +13776,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13905,11 +13809,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13942,11 +13842,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13979,11 +13875,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14016,11 +13908,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14049,17 +13937,11 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>965.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14088,17 +13970,11 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14127,17 +14003,11 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14166,17 +14036,11 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14209,11 +14073,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14246,11 +14106,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14283,11 +14139,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14316,17 +14168,11 @@
         <v>-40432.2453403262</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>928.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14355,17 +14201,11 @@
         <v>-40410.8913403262</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>951.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14394,17 +14234,11 @@
         <v>-40685.8913403262</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>954.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14433,17 +14267,11 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>952.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14472,17 +14300,11 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>953.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14511,17 +14333,11 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>953.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14550,17 +14366,11 @@
         <v>-40969.5020403262</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>953.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14589,17 +14399,11 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14628,17 +14432,11 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>953.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14667,17 +14465,11 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>953.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14706,17 +14498,11 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>953.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14745,17 +14531,11 @@
         <v>-39083.7782403262</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>953.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14784,17 +14564,11 @@
         <v>-39358.7782403262</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>956.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14823,17 +14597,11 @@
         <v>-38529.3426403262</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14862,17 +14630,11 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14901,17 +14663,11 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14940,17 +14696,11 @@
         <v>-38473.1474403262</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14979,17 +14729,11 @@
         <v>-39234.77714032619</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15018,17 +14762,11 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>962.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15057,17 +14795,11 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15100,11 +14832,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15133,17 +14861,11 @@
         <v>-35739.2673403262</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>966.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15172,17 +14894,11 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>960.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15211,17 +14927,11 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>966.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15254,11 +14964,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15291,11 +14997,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15328,11 +15030,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15365,11 +15063,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15402,11 +15096,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15439,17 +15129,13 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest OMG.xlsx
+++ b/BackTest/2020-01-19 BackTest OMG.xlsx
@@ -451,7 +451,7 @@
         <v>-4652.129</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4616.3489</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4732.0401</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1702.1481</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1700.5904</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1900.6062</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>937.4353999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-377.9957000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-405.5108000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-404.5108000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-157.1468000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-226.5625000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1318.9594</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1322.9594</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1323.9594</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2271.407</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2270.407</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>522.607</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>547.607</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3626.4972</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3623.9972</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4096.9073</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7366.5044</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7305.5044</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7309.263</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7341.1977</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7247.6977</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7147.94704736842</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7219.94704736842</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7200.789847368421</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7138.673047368421</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7141.594447368421</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9944.967947368423</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-15093.75534736842</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-15569.64054736842</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-15125.37984736842</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-16194.67474736842</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-16231.47474736842</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-16192.95504736842</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-16146.65514736842</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16150.74154736842</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-13447.43508765046</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-14532.02448765046</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-13324.09558765046</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-12031.03398765046</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-11082.20058765046</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16513.34418765046</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-15716.28658765046</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-14495.09448376218</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15392.79378376218</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16528.95978376218</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16228.95978376218</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16589.95978376218</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16152.67838376218</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16975.29788376218</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-18154.29788376218</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-18754.29788376218</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-20249.98788376218</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-20549.98788376218</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22723.95608376218</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-13716.16648376218</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-19445.84347855176</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-13416.89767855176</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-16076.80519944729</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-15238.15819944729</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-17608.31209984372</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-20738.42099984372</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-22036.64139984372</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-23692.12719984372</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15100.85589984372</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-13451.57539984372</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-14482.24289984372</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-16812.24909984372</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-21223.30189984372</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-21258.51832094825</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-17186.87792094825</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-18776.49672094825</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-18784.59672094825</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-19135.21542094825</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9559,10 +9559,14 @@
         <v>-35656.5256403262</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="J278" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
@@ -9592,11 +9596,19 @@
         <v>-34848.5256403262</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="J279" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9637,19 @@
         <v>-34848.5256403262</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>967.7</v>
+      </c>
+      <c r="J280" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9678,19 @@
         <v>-34420.0135403262</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>967.7</v>
+      </c>
+      <c r="J281" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9719,19 @@
         <v>-35151.7292403262</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>972.6</v>
+      </c>
+      <c r="J282" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9760,19 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>965.2</v>
+      </c>
+      <c r="J283" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9801,19 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>965</v>
+      </c>
+      <c r="J284" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9842,19 @@
         <v>-35150.5919403262</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>965</v>
+      </c>
+      <c r="J285" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9883,19 @@
         <v>-35148.7565403262</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>970</v>
+      </c>
+      <c r="J286" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9924,19 @@
         <v>-35268.87964032619</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>971.6</v>
+      </c>
+      <c r="J287" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9965,19 @@
         <v>-35477.87964032619</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>968.9</v>
+      </c>
+      <c r="J288" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10006,19 @@
         <v>-35478.87964032619</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>964.1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10047,19 @@
         <v>-35479.87964032619</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>961</v>
+      </c>
+      <c r="J290" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10088,19 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="J291" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10129,19 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>968.6</v>
+      </c>
+      <c r="J292" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10170,19 @@
         <v>-35414.7222403262</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>968.6</v>
+      </c>
+      <c r="J293" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10092,10 +10216,12 @@
       <c r="I294" t="n">
         <v>959.5</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10126,10 +10252,14 @@
         <v>-35764.8443403262</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>958</v>
+      </c>
+      <c r="J295" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,10 +10293,14 @@
         <v>-36742.7367403262</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>955.3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,10 +10334,14 @@
         <v>-36910.9304403262</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>952</v>
+      </c>
+      <c r="J297" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,7 +10380,9 @@
       <c r="I298" t="n">
         <v>951.1</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10276,10 +10416,14 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>950</v>
+      </c>
+      <c r="J299" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,10 +10457,14 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>938</v>
+      </c>
+      <c r="J300" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10355,7 +10503,9 @@
       <c r="I301" t="n">
         <v>938</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10394,7 +10544,9 @@
       <c r="I302" t="n">
         <v>939.1</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,7 +10585,9 @@
       <c r="I303" t="n">
         <v>937.7</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,7 +10626,9 @@
       <c r="I304" t="n">
         <v>936.2</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,10 +10662,14 @@
         <v>-6871.296540326198</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>941.8</v>
+      </c>
+      <c r="J305" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,7 +10706,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,12 +10742,12 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>941.6</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10619,12 +10781,12 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>941.6</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,12 +10820,12 @@
         <v>-9120.961840326199</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>941.6</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10697,12 +10859,12 @@
         <v>-4490.444340326199</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>930.1</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,7 +10901,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,7 +10940,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,7 +10979,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,7 +11018,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,7 +11057,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,7 +11096,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,7 +11135,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11174,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,7 +11213,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,7 +11252,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,7 +11291,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,12 +11327,12 @@
         <v>-5080.868740326199</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>934</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,12 +11366,12 @@
         <v>-6871.321640326199</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>933.1</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,12 +11405,12 @@
         <v>-9114.058540326199</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>926.1</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11260,12 +11444,12 @@
         <v>-5502.725040326199</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>925.2</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,12 +11483,12 @@
         <v>-6531.053740326199</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>925.4</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,12 +11522,12 @@
         <v>-11693.5653403262</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>925.3</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,12 +11561,12 @@
         <v>-11651.9237403262</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>908.3</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,12 +11600,12 @@
         <v>-12803.2600403262</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>919.8</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11458,7 +11642,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,12 +11678,12 @@
         <v>-10278.0509403262</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>916</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,7 +11720,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,7 +11759,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,7 +11798,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11645,7 +11837,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11682,7 +11876,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,7 +11915,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,7 +11954,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,7 +11993,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11830,7 +12032,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11867,7 +12071,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11904,7 +12110,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,7 +12149,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,7 +12188,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,7 +12227,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12052,7 +12266,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12089,7 +12305,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12126,7 +12344,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12163,7 +12383,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12200,7 +12422,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12237,7 +12461,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12274,7 +12500,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,7 +12539,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12348,7 +12578,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,7 +12617,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,7 +12656,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,7 +12695,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,7 +12734,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,7 +12773,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,7 +12812,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,7 +12851,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,7 +12890,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,7 +12929,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,7 +12968,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,7 +13007,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +13046,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,7 +13085,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,7 +13124,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,7 +13163,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,7 +13202,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +13241,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13011,16 +13277,20 @@
         <v>-30144.53674032619</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>967.6</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L372" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
       <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -13046,11 +13316,17 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13079,11 +13355,17 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13112,11 +13394,17 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13145,11 +13433,17 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13178,11 +13472,17 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13211,11 +13511,17 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13244,11 +13550,17 @@
         <v>-28558.65164032619</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13280,8 +13592,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13313,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13346,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13379,8 +13709,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13412,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13442,11 +13784,17 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13475,11 +13823,17 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13508,11 +13862,17 @@
         <v>-28623.05804032619</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13544,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13577,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13610,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13643,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13676,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13709,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13742,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13775,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13808,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13841,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13874,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13907,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13940,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13973,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14006,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14039,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14072,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14105,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14138,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14168,11 +14642,19 @@
         <v>-40432.2453403262</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>928.9</v>
+      </c>
+      <c r="J407" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14201,11 +14683,19 @@
         <v>-40410.8913403262</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>951.4</v>
+      </c>
+      <c r="J408" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14234,11 +14724,19 @@
         <v>-40685.8913403262</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>954.6</v>
+      </c>
+      <c r="J409" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14267,11 +14765,19 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>952.2</v>
+      </c>
+      <c r="J410" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14300,11 +14806,19 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="J411" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14333,11 +14847,19 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14366,11 +14888,19 @@
         <v>-40969.5020403262</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="J413" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14402,8 +14932,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14432,11 +14968,19 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>953.2</v>
+      </c>
+      <c r="J415" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14465,11 +15009,19 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>953.2</v>
+      </c>
+      <c r="J416" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +15050,19 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>953.2</v>
+      </c>
+      <c r="J417" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14531,11 +15091,19 @@
         <v>-39083.7782403262</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>953.2</v>
+      </c>
+      <c r="J418" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14564,11 +15132,19 @@
         <v>-39358.7782403262</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>956.9</v>
+      </c>
+      <c r="J419" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14597,11 +15173,19 @@
         <v>-38529.3426403262</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>955</v>
+      </c>
+      <c r="J420" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14630,11 +15214,19 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>956</v>
+      </c>
+      <c r="J421" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14663,11 +15255,19 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>955</v>
+      </c>
+      <c r="J422" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14696,11 +15296,19 @@
         <v>-38473.1474403262</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>955</v>
+      </c>
+      <c r="J423" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14729,11 +15337,19 @@
         <v>-39234.77714032619</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>963</v>
+      </c>
+      <c r="J424" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14762,11 +15378,19 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>962.9</v>
+      </c>
+      <c r="J425" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +15419,19 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>966</v>
+      </c>
+      <c r="J426" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14828,11 +15460,19 @@
         <v>-35738.0485403262</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>966</v>
+      </c>
+      <c r="J427" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14861,11 +15501,19 @@
         <v>-35739.2673403262</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>966.1</v>
+      </c>
+      <c r="J428" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14894,11 +15542,19 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="J429" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14927,11 +15583,19 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>966.1</v>
+      </c>
+      <c r="J430" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14960,11 +15624,19 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>966.1</v>
+      </c>
+      <c r="J431" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14993,11 +15665,19 @@
         <v>-34291.9637403262</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>966.1</v>
+      </c>
+      <c r="J432" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +15706,19 @@
         <v>-34264.9637403262</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>969.9</v>
+      </c>
+      <c r="J433" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15059,11 +15747,19 @@
         <v>-34223.8337403262</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>970</v>
+      </c>
+      <c r="J434" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15092,11 +15788,19 @@
         <v>-33544.20754032621</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>973.4</v>
+      </c>
+      <c r="J435" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15125,11 +15829,19 @@
         <v>-34046.95144032621</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="J436" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
